--- a/No Functional Requeriments.xlsx
+++ b/No Functional Requeriments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caeta\Desktop\Documentos\Proyectos\Aplicación para medir tiempo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caeta\Desktop\Documents\Proyectos\TimeAdministrator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C813241-035C-4B56-B62E-A07AD58F11E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDB73FC-E6FA-4637-AE32-2C88E985066D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20910" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
     <t>Data store</t>
   </si>
   <si>
-    <t>System has to be permite store the data in csv or mysql database. Only one can be selected</t>
+    <t>System has to be permite store the data in csv or mysql database. Only one can be selected for and specific workspace</t>
   </si>
 </sst>
 </file>
@@ -379,10 +379,10 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
